--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2113667.049808104</v>
+        <v>2108410.446006848</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2229795.431210937</v>
+        <v>2289950.192586966</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8634644.732262261</v>
+        <v>8632874.794091005</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70.52922768959384</v>
       </c>
       <c r="I2" t="n">
-        <v>90.4904413839508</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>35.01570020030372</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>155.7985717195426</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8195126544723</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>19.85905444009087</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>382.0204115992409</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>82.31669966662977</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>80.89701500534342</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>142.2389584751278</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>224.1848639526511</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>253.8243076884218</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>152.8687471228653</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>33.25854016778083</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.4002496618838</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>154.7572460957208</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.8403799995838</v>
+        <v>329.8403799995837</v>
       </c>
       <c r="C11" t="n">
-        <v>322.5943282273996</v>
+        <v>192.4271911047736</v>
       </c>
       <c r="D11" t="n">
-        <v>314.9372992407999</v>
+        <v>314.9372992407997</v>
       </c>
       <c r="E11" t="n">
-        <v>331.9082713799218</v>
+        <v>331.9082713799217</v>
       </c>
       <c r="F11" t="n">
-        <v>346.0760758306229</v>
+        <v>346.0760758306228</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3817097021778</v>
+        <v>342.3817097021777</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>254.192801674475</v>
       </c>
       <c r="I11" t="n">
-        <v>70.30432748376074</v>
+        <v>70.30432748376064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.19900125366087</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>154.6161781614784</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>57.75626915175758</v>
+        <v>186.5457840150482</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>318.9086607615747</v>
+        <v>318.9086607615745</v>
       </c>
       <c r="Y11" t="n">
-        <v>325.8763837339058</v>
+        <v>325.8763837339057</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>8.828732984063436</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.8536484999715</v>
       </c>
       <c r="D13" t="n">
-        <v>87.42736371181132</v>
+        <v>87.42736371181122</v>
       </c>
       <c r="E13" t="n">
-        <v>87.35380576469043</v>
+        <v>87.35380576469034</v>
       </c>
       <c r="F13" t="n">
-        <v>89.1032571844577</v>
+        <v>89.1032571844576</v>
       </c>
       <c r="G13" t="n">
-        <v>99.92209510684984</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27434727342188</v>
+        <v>87.27434727342178</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.01256121904973</v>
+        <v>56.01256121904963</v>
       </c>
       <c r="S13" t="n">
-        <v>134.138504724577</v>
+        <v>134.1385047245769</v>
       </c>
       <c r="T13" t="n">
-        <v>166.7124430587491</v>
+        <v>166.712443058749</v>
       </c>
       <c r="U13" t="n">
-        <v>215.934985585819</v>
+        <v>215.9349855858189</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>196.6701334726848</v>
       </c>
       <c r="W13" t="n">
-        <v>196.5718414265443</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>165.0901007401476</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>154.2315223168239</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>86.70694367598206</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>249.3952249594926</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277652</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325497</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211826</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.1114851537506</v>
+        <v>282.6680226811115</v>
       </c>
       <c r="C32" t="n">
-        <v>281.8654333815663</v>
+        <v>275.4219709089273</v>
       </c>
       <c r="D32" t="n">
-        <v>274.2084043949666</v>
+        <v>267.7649419223275</v>
       </c>
       <c r="E32" t="n">
-        <v>291.1793765340885</v>
+        <v>284.7359140614495</v>
       </c>
       <c r="F32" t="n">
-        <v>305.3471809847896</v>
+        <v>298.9037185121506</v>
       </c>
       <c r="G32" t="n">
-        <v>301.6528148563445</v>
+        <v>295.2093523837054</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4639068286419</v>
+        <v>207.0204443560028</v>
       </c>
       <c r="I32" t="n">
-        <v>29.57543263792745</v>
+        <v>23.13197016528841</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.47010640782757</v>
+        <v>51.02664393518853</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8872833156451</v>
+        <v>107.4438208430061</v>
       </c>
       <c r="U32" t="n">
-        <v>145.816889169215</v>
+        <v>139.373426696576</v>
       </c>
       <c r="V32" t="n">
-        <v>231.3074281029844</v>
+        <v>224.8639656303454</v>
       </c>
       <c r="W32" t="n">
-        <v>259.9107315808631</v>
+        <v>253.467269108224</v>
       </c>
       <c r="X32" t="n">
-        <v>278.1797659157414</v>
+        <v>271.7363034431023</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.1474888880725</v>
+        <v>278.7040264154335</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.9776254038559</v>
+        <v>69.53416293121685</v>
       </c>
       <c r="C34" t="n">
-        <v>61.1247536541383</v>
+        <v>54.68129118149926</v>
       </c>
       <c r="D34" t="n">
-        <v>46.69846886597803</v>
+        <v>40.25500639333899</v>
       </c>
       <c r="E34" t="n">
-        <v>46.62491091885714</v>
+        <v>40.1814484462181</v>
       </c>
       <c r="F34" t="n">
-        <v>48.37436233862441</v>
+        <v>41.93089986598537</v>
       </c>
       <c r="G34" t="n">
-        <v>59.19320026101654</v>
+        <v>52.7497377883775</v>
       </c>
       <c r="H34" t="n">
-        <v>46.54545242758859</v>
+        <v>40.10198995494954</v>
       </c>
       <c r="I34" t="n">
-        <v>24.38516800876052</v>
+        <v>17.94170553612148</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.28366637321643</v>
+        <v>8.840203900577393</v>
       </c>
       <c r="S34" t="n">
-        <v>93.40960987874375</v>
+        <v>86.96614740610471</v>
       </c>
       <c r="T34" t="n">
-        <v>125.9835482129158</v>
+        <v>119.5400857402768</v>
       </c>
       <c r="U34" t="n">
-        <v>175.2060907399857</v>
+        <v>168.7626282673467</v>
       </c>
       <c r="V34" t="n">
-        <v>155.9412386268517</v>
+        <v>149.4977761542126</v>
       </c>
       <c r="W34" t="n">
-        <v>173.1187849476018</v>
+        <v>166.6753224749627</v>
       </c>
       <c r="X34" t="n">
-        <v>124.3612058943144</v>
+        <v>117.9177434216753</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.5026274709907</v>
+        <v>107.0591649983517</v>
       </c>
     </row>
     <row r="35">
@@ -3977,25 +3977,25 @@
         <v>293.4716851583158</v>
       </c>
       <c r="C44" t="n">
-        <v>286.2256333861317</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>278.5686043995319</v>
+        <v>278.5686043995318</v>
       </c>
       <c r="E44" t="n">
-        <v>225.3603807477967</v>
+        <v>295.5395765386538</v>
       </c>
       <c r="F44" t="n">
-        <v>309.707380989355</v>
+        <v>185.8051710812278</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>306.0130148609097</v>
       </c>
       <c r="H44" t="n">
-        <v>217.8241068332072</v>
+        <v>217.8241068332071</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.93563264249269</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.8303064123929</v>
+        <v>61.83030641239282</v>
       </c>
       <c r="T44" t="n">
         <v>118.2474833202104</v>
       </c>
       <c r="U44" t="n">
-        <v>150.1770891737803</v>
+        <v>150.1770891737802</v>
       </c>
       <c r="V44" t="n">
         <v>235.6676281075497</v>
@@ -4040,7 +4040,7 @@
         <v>264.2709315854283</v>
       </c>
       <c r="X44" t="n">
-        <v>282.5399659203067</v>
+        <v>282.5399659203066</v>
       </c>
       <c r="Y44" t="n">
         <v>289.5076888926378</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.33782540842122</v>
+        <v>80.33782540842114</v>
       </c>
       <c r="C46" t="n">
-        <v>65.48495365870363</v>
+        <v>65.48495365870355</v>
       </c>
       <c r="D46" t="n">
-        <v>51.05866887054336</v>
+        <v>51.05866887054327</v>
       </c>
       <c r="E46" t="n">
-        <v>50.98511092342247</v>
+        <v>50.98511092342238</v>
       </c>
       <c r="F46" t="n">
-        <v>52.73456234318974</v>
+        <v>52.73456234318965</v>
       </c>
       <c r="G46" t="n">
-        <v>63.55340026558187</v>
+        <v>63.55340026558179</v>
       </c>
       <c r="H46" t="n">
-        <v>50.90565243215391</v>
+        <v>50.90565243215383</v>
       </c>
       <c r="I46" t="n">
-        <v>28.74536801332584</v>
+        <v>28.74536801332576</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.64386637778176</v>
+        <v>19.64386637778168</v>
       </c>
       <c r="S46" t="n">
-        <v>97.76980988330908</v>
+        <v>97.76980988330899</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3437482174812</v>
+        <v>130.3437482174811</v>
       </c>
       <c r="U46" t="n">
-        <v>179.566290744551</v>
+        <v>179.5662907445509</v>
       </c>
       <c r="V46" t="n">
-        <v>160.301438631417</v>
+        <v>160.3014386314169</v>
       </c>
       <c r="W46" t="n">
-        <v>177.4789849521671</v>
+        <v>177.478984952167</v>
       </c>
       <c r="X46" t="n">
-        <v>128.7214058988797</v>
+        <v>128.7214058988796</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.862827475556</v>
+        <v>117.8628274755559</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>963.1783034469265</v>
+        <v>272.7362366766735</v>
       </c>
       <c r="C2" t="n">
-        <v>963.1783034469265</v>
+        <v>272.7362366766735</v>
       </c>
       <c r="D2" t="n">
-        <v>963.1783034469265</v>
+        <v>272.7362366766735</v>
       </c>
       <c r="E2" t="n">
-        <v>560.594778563471</v>
+        <v>272.7362366766735</v>
       </c>
       <c r="F2" t="n">
-        <v>547.7407441338528</v>
+        <v>259.8822022470553</v>
       </c>
       <c r="G2" t="n">
-        <v>134.5779886218559</v>
+        <v>250.7598507754625</v>
       </c>
       <c r="H2" t="n">
-        <v>134.5779886218559</v>
+        <v>179.5182066445596</v>
       </c>
       <c r="I2" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="J2" t="n">
-        <v>187.8232752842691</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="K2" t="n">
-        <v>546.8056313117308</v>
+        <v>66.74986269506877</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.12592303026</v>
+        <v>66.74986269506877</v>
       </c>
       <c r="M2" t="n">
-        <v>1574.398014926342</v>
+        <v>576.3658481907464</v>
       </c>
       <c r="N2" t="n">
-        <v>1574.398014926342</v>
+        <v>1085.981833686424</v>
       </c>
       <c r="O2" t="n">
-        <v>1973.8295586311</v>
+        <v>1526.021434578753</v>
       </c>
       <c r="P2" t="n">
-        <v>1973.8295586311</v>
+        <v>1874.208926710274</v>
       </c>
       <c r="Q2" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="R2" t="n">
-        <v>2120.682205057571</v>
+        <v>2021.061573136745</v>
       </c>
       <c r="S2" t="n">
-        <v>1954.168649998621</v>
+        <v>1854.548018077795</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.668047558038</v>
+        <v>1631.047415637212</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.668047558038</v>
+        <v>1375.294686071811</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.668047558038</v>
+        <v>1033.187876775329</v>
       </c>
       <c r="W2" t="n">
-        <v>1359.669012526325</v>
+        <v>662.1888417436166</v>
       </c>
       <c r="X2" t="n">
-        <v>1359.669012526325</v>
+        <v>272.7362366766735</v>
       </c>
       <c r="Y2" t="n">
-        <v>963.1783034469265</v>
+        <v>272.7362366766735</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.4505181369523</v>
+        <v>840.5470728770554</v>
       </c>
       <c r="C3" t="n">
-        <v>561.7962876970445</v>
+        <v>689.8928424371476</v>
       </c>
       <c r="D3" t="n">
-        <v>561.7962876970445</v>
+        <v>559.8038750586279</v>
       </c>
       <c r="E3" t="n">
-        <v>425.3497968079322</v>
+        <v>423.3573841695157</v>
       </c>
       <c r="F3" t="n">
-        <v>300.917990691064</v>
+        <v>298.9255780526475</v>
       </c>
       <c r="G3" t="n">
-        <v>180.8581727629285</v>
+        <v>178.865760124512</v>
       </c>
       <c r="H3" t="n">
-        <v>92.56075636352938</v>
+        <v>90.56834372511287</v>
       </c>
       <c r="I3" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="J3" t="n">
-        <v>43.17350237544098</v>
+        <v>154.2960719567518</v>
       </c>
       <c r="K3" t="n">
-        <v>362.9126484376674</v>
+        <v>474.0352180189783</v>
       </c>
       <c r="L3" t="n">
-        <v>362.9126484376674</v>
+        <v>909.4520410842572</v>
       </c>
       <c r="M3" t="n">
-        <v>897.1847403337495</v>
+        <v>909.4520410842572</v>
       </c>
       <c r="N3" t="n">
-        <v>1431.456832229831</v>
+        <v>909.4520410842572</v>
       </c>
       <c r="O3" t="n">
-        <v>1753.053750055651</v>
+        <v>1419.068026579935</v>
       </c>
       <c r="P3" t="n">
-        <v>2158.675118772049</v>
+        <v>1824.689395296332</v>
       </c>
       <c r="Q3" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="R3" t="n">
-        <v>2134.758075670113</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.827398569982</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="T3" t="n">
-        <v>1822.84358676889</v>
+        <v>2023.685092709502</v>
       </c>
       <c r="U3" t="n">
-        <v>1612.780443447532</v>
+        <v>1813.621949388144</v>
       </c>
       <c r="V3" t="n">
-        <v>1390.240441818599</v>
+        <v>1591.081947759211</v>
       </c>
       <c r="W3" t="n">
-        <v>1232.868147152395</v>
+        <v>1360.964701892498</v>
       </c>
       <c r="X3" t="n">
-        <v>1043.561069502406</v>
+        <v>1171.657624242509</v>
       </c>
       <c r="Y3" t="n">
-        <v>864.2468525779136</v>
+        <v>992.3434073180167</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="C4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="D4" t="n">
-        <v>679.7908542423261</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="E4" t="n">
-        <v>524.2320421015286</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="F4" t="n">
-        <v>366.9061073145015</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="G4" t="n">
-        <v>198.652053413947</v>
+        <v>360.1323363123506</v>
       </c>
       <c r="H4" t="n">
-        <v>43.17350237544098</v>
+        <v>204.6537852738446</v>
       </c>
       <c r="I4" t="n">
-        <v>43.17350237544098</v>
+        <v>71.55935991092251</v>
       </c>
       <c r="J4" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="K4" t="n">
-        <v>125.0085434853828</v>
+        <v>123.0161308469663</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1361833591826</v>
+        <v>287.1437707207661</v>
       </c>
       <c r="M4" t="n">
-        <v>475.4277616974466</v>
+        <v>473.4353490590302</v>
       </c>
       <c r="N4" t="n">
-        <v>658.6173957286558</v>
+        <v>656.6249830902393</v>
       </c>
       <c r="O4" t="n">
-        <v>821.3221627703638</v>
+        <v>819.3297501319473</v>
       </c>
       <c r="P4" t="n">
-        <v>941.1983285469423</v>
+        <v>939.2059159085259</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.6205249169933</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="R4" t="n">
-        <v>944.6205249169933</v>
+        <v>818.7271229111539</v>
       </c>
       <c r="S4" t="n">
-        <v>944.6205249169933</v>
+        <v>615.9110390937033</v>
       </c>
       <c r="T4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="U4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="V4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="W4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="X4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
       <c r="Y4" t="n">
-        <v>708.9014730852274</v>
+        <v>380.1919872619374</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.3253897737213</v>
+        <v>853.0770833142365</v>
       </c>
       <c r="C5" t="n">
-        <v>65.14988827665192</v>
+        <v>467.1978796786395</v>
       </c>
       <c r="D5" t="n">
-        <v>65.14988827665192</v>
+        <v>467.1978796786395</v>
       </c>
       <c r="E5" t="n">
-        <v>65.14988827665192</v>
+        <v>467.1978796786395</v>
       </c>
       <c r="F5" t="n">
-        <v>52.29585384703375</v>
+        <v>454.3438452490213</v>
       </c>
       <c r="G5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="H5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="I5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="J5" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="K5" t="n">
-        <v>43.17350237544098</v>
+        <v>400.1634457644863</v>
       </c>
       <c r="L5" t="n">
-        <v>536.4937940939698</v>
+        <v>761.2114083316949</v>
       </c>
       <c r="M5" t="n">
-        <v>1070.765885990052</v>
+        <v>761.2114083316949</v>
       </c>
       <c r="N5" t="n">
-        <v>1598.577169627514</v>
+        <v>1270.827393827373</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.616770519842</v>
+        <v>1710.866994719701</v>
       </c>
       <c r="P5" t="n">
-        <v>2038.616770519842</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="Q5" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="R5" t="n">
-        <v>2120.682205057571</v>
+        <v>2021.061573136745</v>
       </c>
       <c r="S5" t="n">
-        <v>1954.168649998621</v>
+        <v>2021.061573136745</v>
       </c>
       <c r="T5" t="n">
-        <v>1954.168649998621</v>
+        <v>2021.061573136745</v>
       </c>
       <c r="U5" t="n">
-        <v>1698.41592043322</v>
+        <v>2021.061573136745</v>
       </c>
       <c r="V5" t="n">
-        <v>1615.267738951776</v>
+        <v>2021.061573136745</v>
       </c>
       <c r="W5" t="n">
-        <v>1244.268703920063</v>
+        <v>1650.062538105032</v>
       </c>
       <c r="X5" t="n">
-        <v>854.8160988531201</v>
+        <v>1650.062538105032</v>
       </c>
       <c r="Y5" t="n">
-        <v>458.3253897737213</v>
+        <v>1253.571829025633</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706.0929946263597</v>
+        <v>540.0849350156182</v>
       </c>
       <c r="C6" t="n">
-        <v>555.4387641864519</v>
+        <v>389.4307045757104</v>
       </c>
       <c r="D6" t="n">
-        <v>425.3497968079322</v>
+        <v>259.3417371971907</v>
       </c>
       <c r="E6" t="n">
-        <v>425.3497968079322</v>
+        <v>122.8952463080784</v>
       </c>
       <c r="F6" t="n">
-        <v>300.917990691064</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="G6" t="n">
-        <v>180.8581727629285</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="H6" t="n">
-        <v>92.56075636352938</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="I6" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="J6" t="n">
-        <v>156.2884845951684</v>
+        <v>154.2960719567518</v>
       </c>
       <c r="K6" t="n">
-        <v>156.2884845951684</v>
+        <v>474.0352180189783</v>
       </c>
       <c r="L6" t="n">
-        <v>156.2884845951684</v>
+        <v>957.6013039172915</v>
       </c>
       <c r="M6" t="n">
-        <v>467.8962840136976</v>
+        <v>957.6013039172915</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.16837590978</v>
+        <v>957.6013039172915</v>
       </c>
       <c r="O6" t="n">
-        <v>1518.688658500761</v>
+        <v>1467.217289412969</v>
       </c>
       <c r="P6" t="n">
-        <v>1924.310027217158</v>
+        <v>1872.838658129367</v>
       </c>
       <c r="Q6" t="n">
-        <v>2158.675118772049</v>
+        <v>2059.054486851223</v>
       </c>
       <c r="R6" t="n">
-        <v>2134.758075670113</v>
+        <v>2035.137443749288</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.827398569982</v>
+        <v>1900.206766649156</v>
       </c>
       <c r="T6" t="n">
-        <v>1822.84358676889</v>
+        <v>1723.222954848065</v>
       </c>
       <c r="U6" t="n">
-        <v>1679.167871137448</v>
+        <v>1513.159811526707</v>
       </c>
       <c r="V6" t="n">
-        <v>1456.627869508515</v>
+        <v>1290.619809897774</v>
       </c>
       <c r="W6" t="n">
-        <v>1226.510623641802</v>
+        <v>1060.502564031061</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.203545991814</v>
+        <v>871.1954863810722</v>
       </c>
       <c r="Y6" t="n">
-        <v>857.889329067321</v>
+        <v>691.8812694565795</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="C7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="D7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="E7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="F7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="G7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="H7" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="I7" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="J7" t="n">
-        <v>43.17350237544098</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="K7" t="n">
-        <v>125.0085434853828</v>
+        <v>123.0161308469663</v>
       </c>
       <c r="L7" t="n">
-        <v>289.1361833591826</v>
+        <v>287.1437707207661</v>
       </c>
       <c r="M7" t="n">
-        <v>475.4277616974466</v>
+        <v>473.4353490590302</v>
       </c>
       <c r="N7" t="n">
-        <v>658.6173957286558</v>
+        <v>656.6249830902393</v>
       </c>
       <c r="O7" t="n">
-        <v>821.3221627703638</v>
+        <v>819.3297501319473</v>
       </c>
       <c r="P7" t="n">
-        <v>941.1983285469423</v>
+        <v>939.2059159085259</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.6205249169933</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="R7" t="n">
-        <v>944.6205249169933</v>
+        <v>818.7271229111539</v>
       </c>
       <c r="S7" t="n">
-        <v>944.6205249169933</v>
+        <v>818.7271229111539</v>
       </c>
       <c r="T7" t="n">
-        <v>944.6205249169933</v>
+        <v>583.0080710793879</v>
       </c>
       <c r="U7" t="n">
-        <v>659.1817331588943</v>
+        <v>297.5692793212889</v>
       </c>
       <c r="V7" t="n">
-        <v>432.7323756309639</v>
+        <v>297.5692793212889</v>
       </c>
       <c r="W7" t="n">
-        <v>432.7323756309639</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="X7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.652053413947</v>
+        <v>41.18108973702446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>986.2431031906915</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>593.067601693622</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>265.4829774041385</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.641433863169</v>
+        <v>1358.797017469107</v>
       </c>
       <c r="X8" t="n">
-        <v>1783.228557981487</v>
+        <v>969.3444124021636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.737848902088</v>
+        <v>935.7499273842031</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>541.4052550335941</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>371.2001370995833</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>764.5173162169508</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>764.5173162169508</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>764.5173162169508</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>764.5173162169508</v>
       </c>
       <c r="W10" t="n">
-        <v>792.4395420413579</v>
+        <v>764.5173162169508</v>
       </c>
       <c r="X10" t="n">
-        <v>558.3592198243409</v>
+        <v>764.5173162169508</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>541.4052550335941</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1807.77772554723</v>
+        <v>1933.056174589501</v>
       </c>
       <c r="C11" t="n">
-        <v>1481.924868751877</v>
+        <v>1738.685274483669</v>
       </c>
       <c r="D11" t="n">
-        <v>1163.806384670261</v>
+        <v>1420.566790402053</v>
       </c>
       <c r="E11" t="n">
-        <v>828.5455044885214</v>
+        <v>1085.305910220314</v>
       </c>
       <c r="F11" t="n">
-        <v>478.9737107202153</v>
+        <v>735.7341164520079</v>
       </c>
       <c r="G11" t="n">
-        <v>133.1335999099347</v>
+        <v>389.8940056417273</v>
       </c>
       <c r="H11" t="n">
-        <v>133.1335999099347</v>
+        <v>133.1335999099344</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5057,7 +5057,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3006.765474848543</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2850.587517109676</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2792.24785129982</v>
+        <v>2917.526300342091</v>
       </c>
       <c r="V11" t="n">
-        <v>2792.24785129982</v>
+        <v>2917.526300342091</v>
       </c>
       <c r="W11" t="n">
-        <v>2792.24785129982</v>
+        <v>2917.526300342091</v>
       </c>
       <c r="X11" t="n">
-        <v>2470.117890934594</v>
+        <v>2595.396339976864</v>
       </c>
       <c r="Y11" t="n">
-        <v>2140.949826556911</v>
+        <v>2266.228275599182</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.7563691599046</v>
+        <v>519.7074331933605</v>
       </c>
       <c r="C13" t="n">
-        <v>517.7563691599046</v>
+        <v>416.824959961066</v>
       </c>
       <c r="D13" t="n">
-        <v>429.4459007641356</v>
+        <v>328.5144915652971</v>
       </c>
       <c r="E13" t="n">
-        <v>341.2097333250543</v>
+        <v>240.278324126216</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2064432397435</v>
+        <v>150.2750340409052</v>
       </c>
       <c r="G13" t="n">
-        <v>150.2750340409053</v>
+        <v>150.2750340409052</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>98.32830917883012</v>
+        <v>98.32830917883021</v>
       </c>
       <c r="K13" t="n">
-        <v>246.1462743609241</v>
+        <v>246.1462743609243</v>
       </c>
       <c r="L13" t="n">
-        <v>476.2568383068759</v>
+        <v>476.2568383068762</v>
       </c>
       <c r="M13" t="n">
-        <v>728.5313407172921</v>
+        <v>728.5313407172922</v>
       </c>
       <c r="N13" t="n">
-        <v>977.7038988206534</v>
+        <v>977.7038988206536</v>
       </c>
       <c r="O13" t="n">
         <v>1206.391589934514</v>
       </c>
       <c r="P13" t="n">
-        <v>1392.250679783244</v>
+        <v>1392.250679783245</v>
       </c>
       <c r="Q13" t="n">
-        <v>1461.655800225447</v>
+        <v>1461.655800225448</v>
       </c>
       <c r="R13" t="n">
-        <v>1405.07745555974</v>
+        <v>1405.077455559741</v>
       </c>
       <c r="S13" t="n">
-        <v>1269.584016444006</v>
+        <v>1269.584016444007</v>
       </c>
       <c r="T13" t="n">
-        <v>1101.187609313956</v>
+        <v>1101.187609313957</v>
       </c>
       <c r="U13" t="n">
-        <v>883.0714622575732</v>
+        <v>883.0714622575747</v>
       </c>
       <c r="V13" t="n">
-        <v>883.0714622575732</v>
+        <v>684.4147617801154</v>
       </c>
       <c r="W13" t="n">
-        <v>684.5140466752052</v>
+        <v>684.4147617801154</v>
       </c>
       <c r="X13" t="n">
-        <v>517.7563691599046</v>
+        <v>684.4147617801154</v>
       </c>
       <c r="Y13" t="n">
-        <v>517.7563691599046</v>
+        <v>528.6253452984752</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1686.255841803932</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1388.021021594051</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1097.520574097906</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>789.8777305016392</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>467.9239733188053</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>149.7018990939964</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2977.396464052382</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U14" t="n">
-        <v>2977.396464052382</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.230336043088</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W14" t="n">
-        <v>2478.315967397137</v>
+        <v>2293.359934020351</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>2293.359934020351</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604926</v>
+        <v>1991.80990622814</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082777</v>
@@ -5419,10 +5419,10 @@
         <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5431,13 +5431,13 @@
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757663</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
         <v>557.4621512791391</v>
@@ -5455,7 +5455,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5601,10 +5601,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5686,13 +5686,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5780,22 +5780,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5920,40 +5920,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797591</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214671</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5975,13 +5975,13 @@
         <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,7 +6020,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6069,13 +6069,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446686</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184684</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567324</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879416</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296496</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388517</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6379,7 +6379,7 @@
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
@@ -6443,16 +6443,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
         <v>3060.13197616485</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6613,7 +6613,7 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.662310027837</v>
+        <v>1736.110061724295</v>
       </c>
       <c r="C32" t="n">
-        <v>1498.949751056557</v>
+        <v>1457.906050705177</v>
       </c>
       <c r="D32" t="n">
-        <v>1221.971564799016</v>
+        <v>1187.436412399795</v>
       </c>
       <c r="E32" t="n">
-        <v>927.8509824413504</v>
+        <v>899.8243779942909</v>
       </c>
       <c r="F32" t="n">
-        <v>619.4194864971184</v>
+        <v>597.9014300022195</v>
       </c>
       <c r="G32" t="n">
-        <v>314.7196735109119</v>
+        <v>299.7101649681736</v>
       </c>
       <c r="H32" t="n">
-        <v>99.09956560319253</v>
+        <v>90.59860501261537</v>
       </c>
       <c r="I32" t="n">
-        <v>69.22539122144764</v>
+        <v>67.23297858303111</v>
       </c>
       <c r="J32" t="n">
-        <v>213.8751641302757</v>
+        <v>211.8827514918592</v>
       </c>
       <c r="K32" t="n">
-        <v>572.8575201577376</v>
+        <v>570.8651075193211</v>
       </c>
       <c r="L32" t="n">
-        <v>1172.482341845794</v>
+        <v>1089.396976669834</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.483241890374</v>
+        <v>1748.081434531854</v>
       </c>
       <c r="N32" t="n">
-        <v>2352.599055497363</v>
+        <v>2388.576275986756</v>
       </c>
       <c r="O32" t="n">
-        <v>2821.931978830385</v>
+        <v>2828.615876879085</v>
       </c>
       <c r="P32" t="n">
-        <v>3170.119470961906</v>
+        <v>3176.803369010607</v>
       </c>
       <c r="Q32" t="n">
-        <v>3461.269561072382</v>
+        <v>3361.648929151555</v>
       </c>
       <c r="R32" t="n">
-        <v>3461.269561072382</v>
+        <v>3361.648929151555</v>
       </c>
       <c r="S32" t="n">
-        <v>3403.218948539222</v>
+        <v>3310.106864570557</v>
       </c>
       <c r="T32" t="n">
-        <v>3288.18128862443</v>
+        <v>3201.577752607925</v>
       </c>
       <c r="U32" t="n">
-        <v>3140.891501584819</v>
+        <v>3060.796513520474</v>
       </c>
       <c r="V32" t="n">
-        <v>2907.247634814127</v>
+        <v>2833.661194701944</v>
       </c>
       <c r="W32" t="n">
-        <v>2644.711542308205</v>
+        <v>2577.633650148181</v>
       </c>
       <c r="X32" t="n">
-        <v>2363.721879767052</v>
+        <v>2303.152535559189</v>
       </c>
       <c r="Y32" t="n">
-        <v>2075.694113213443</v>
+        <v>2021.633316957741</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.5913743614785</v>
+        <v>866.5989617230621</v>
       </c>
       <c r="C33" t="n">
-        <v>717.9371439215707</v>
+        <v>715.9447312831543</v>
       </c>
       <c r="D33" t="n">
-        <v>587.8481765430511</v>
+        <v>585.8557639046346</v>
       </c>
       <c r="E33" t="n">
-        <v>451.4016856539388</v>
+        <v>449.4092730155223</v>
       </c>
       <c r="F33" t="n">
-        <v>326.9698795370707</v>
+        <v>324.9774668986541</v>
       </c>
       <c r="G33" t="n">
-        <v>206.9100616089351</v>
+        <v>204.9176489705186</v>
       </c>
       <c r="H33" t="n">
-        <v>118.6126452095361</v>
+        <v>116.6202325711195</v>
       </c>
       <c r="I33" t="n">
-        <v>69.22539122144764</v>
+        <v>67.23297858303111</v>
       </c>
       <c r="J33" t="n">
-        <v>182.340373441175</v>
+        <v>67.23297858303111</v>
       </c>
       <c r="K33" t="n">
-        <v>502.0795195034015</v>
+        <v>386.9721246452576</v>
       </c>
       <c r="L33" t="n">
-        <v>985.6456054017146</v>
+        <v>870.5382105435708</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.417255028396</v>
+        <v>870.5382105435708</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.417255028396</v>
+        <v>1526.31618175413</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.574465925795</v>
+        <v>1745.582053287379</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.195834642193</v>
+        <v>2151.203422003776</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.560926197084</v>
+        <v>2385.568513558667</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.643883095148</v>
+        <v>2361.651470456731</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.713205995017</v>
+        <v>2226.7207933566</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.729394193925</v>
+        <v>2049.736981555508</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.666250872567</v>
+        <v>1839.67383823415</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.126249243634</v>
+        <v>1617.133836605218</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.009003376921</v>
+        <v>1387.016590738504</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.701925726933</v>
+        <v>1197.709513088516</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.38770880244</v>
+        <v>1018.395296164023</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>405.5348018022189</v>
+        <v>357.9825534986779</v>
       </c>
       <c r="C34" t="n">
-        <v>343.7926263939984</v>
+        <v>302.748926042618</v>
       </c>
       <c r="D34" t="n">
-        <v>296.6224558223034</v>
+        <v>262.0873034230837</v>
       </c>
       <c r="E34" t="n">
-        <v>249.5265862072962</v>
+        <v>221.4999817602371</v>
       </c>
       <c r="F34" t="n">
-        <v>200.6635939460594</v>
+        <v>179.1455374511609</v>
       </c>
       <c r="G34" t="n">
-        <v>140.8724825712952</v>
+        <v>125.8629740285574</v>
       </c>
       <c r="H34" t="n">
-        <v>93.85687405857948</v>
+        <v>85.3559134680023</v>
       </c>
       <c r="I34" t="n">
-        <v>69.22539122144764</v>
+        <v>67.23297858303111</v>
       </c>
       <c r="J34" t="n">
-        <v>69.22539122144764</v>
+        <v>150.1427938030333</v>
       </c>
       <c r="K34" t="n">
-        <v>151.0604323313895</v>
+        <v>231.9778349129752</v>
       </c>
       <c r="L34" t="n">
-        <v>388.2509237485996</v>
+        <v>396.1054747867749</v>
       </c>
       <c r="M34" t="n">
-        <v>680.8470320563906</v>
+        <v>668.264326457105</v>
       </c>
       <c r="N34" t="n">
-        <v>970.3411960571268</v>
+        <v>851.4539604883141</v>
       </c>
       <c r="O34" t="n">
-        <v>1133.045963098835</v>
+        <v>1126.842285347462</v>
       </c>
       <c r="P34" t="n">
-        <v>1359.22665884494</v>
+        <v>1359.40200894148</v>
       </c>
       <c r="Q34" t="n">
-        <v>1468.953385184518</v>
+        <v>1362.824205311531</v>
       </c>
       <c r="R34" t="n">
-        <v>1453.515338342886</v>
+        <v>1353.894706422059</v>
       </c>
       <c r="S34" t="n">
-        <v>1359.162197051225</v>
+        <v>1266.050113082559</v>
       </c>
       <c r="T34" t="n">
-        <v>1231.90608774525</v>
+        <v>1145.302551728744</v>
       </c>
       <c r="U34" t="n">
-        <v>1054.930238512941</v>
+        <v>974.8352504485963</v>
       </c>
       <c r="V34" t="n">
-        <v>897.4138358595552</v>
+        <v>823.8273957473714</v>
       </c>
       <c r="W34" t="n">
-        <v>722.546376316523</v>
+        <v>655.4684841564999</v>
       </c>
       <c r="X34" t="n">
-        <v>596.9289966252963</v>
+        <v>536.3596524174339</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.2798779677299</v>
+        <v>428.2190817120282</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N36" t="n">
-        <v>1634.317313094942</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7111,10 +7111,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,16 +7154,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7391,16 +7391,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.7795079292422</v>
@@ -7442,19 +7442,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7570,10 +7570,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M43" t="n">
         <v>629.0093992567331</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1393.1151947304</v>
+        <v>1393.115194730401</v>
       </c>
       <c r="C44" t="n">
-        <v>1103.998393330267</v>
+        <v>1393.115194730401</v>
       </c>
       <c r="D44" t="n">
-        <v>822.6159646438714</v>
+        <v>1111.732766044006</v>
       </c>
       <c r="E44" t="n">
-        <v>594.9792164137743</v>
+        <v>813.2079412574863</v>
       </c>
       <c r="F44" t="n">
-        <v>282.1434780406885</v>
+        <v>625.5259502663474</v>
       </c>
       <c r="G44" t="n">
-        <v>282.1434780406885</v>
+        <v>316.4218948512871</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>96.39754451471421</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3043.501530243763</v>
+        <v>3043.501530243764</v>
       </c>
       <c r="T44" t="n">
         <v>2924.059627900117</v>
@@ -7682,16 +7682,16 @@
         <v>2772.365598431652</v>
       </c>
       <c r="V44" t="n">
-        <v>2534.317489232106</v>
+        <v>2534.317489232107</v>
       </c>
       <c r="W44" t="n">
-        <v>2267.37715429733</v>
+        <v>2267.377154297331</v>
       </c>
       <c r="X44" t="n">
-        <v>1981.983249327323</v>
+        <v>1981.983249327324</v>
       </c>
       <c r="Y44" t="n">
-        <v>1689.55124034486</v>
+        <v>1689.551240344862</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>429.2582352868639</v>
+        <v>429.2582352868633</v>
       </c>
       <c r="C46" t="n">
-        <v>363.1118174497894</v>
+        <v>363.111817449789</v>
       </c>
       <c r="D46" t="n">
-        <v>311.5374044492406</v>
+        <v>311.5374044492402</v>
       </c>
       <c r="E46" t="n">
-        <v>260.0372924053795</v>
+        <v>260.0372924053792</v>
       </c>
       <c r="F46" t="n">
-        <v>206.7700577152889</v>
+        <v>206.7700577152887</v>
       </c>
       <c r="G46" t="n">
-        <v>142.5747039116708</v>
+        <v>142.5747039116707</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15485297010123</v>
+        <v>91.15485297010116</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>134.3333170716855</v>
       </c>
       <c r="K46" t="n">
-        <v>245.9421007790648</v>
+        <v>318.1562901466348</v>
       </c>
       <c r="L46" t="n">
-        <v>512.057672617872</v>
+        <v>584.271861985442</v>
       </c>
       <c r="M46" t="n">
-        <v>757.158441414279</v>
+        <v>872.5513722887135</v>
       </c>
       <c r="N46" t="n">
-        <v>1042.336007410496</v>
+        <v>1157.72893828493</v>
       </c>
       <c r="O46" t="n">
-        <v>1307.028706417211</v>
+        <v>1409.016638382217</v>
       </c>
       <c r="P46" t="n">
-        <v>1426.90487219379</v>
+        <v>1528.892804158796</v>
       </c>
       <c r="Q46" t="n">
-        <v>1532.315000528848</v>
+        <v>1532.315000528847</v>
       </c>
       <c r="R46" t="n">
-        <v>1512.472711258361</v>
+        <v>1512.47271125836</v>
       </c>
       <c r="S46" t="n">
-        <v>1413.715327537847</v>
+        <v>1413.715327537846</v>
       </c>
       <c r="T46" t="n">
         <v>1282.054975803017</v>
       </c>
       <c r="U46" t="n">
-        <v>1100.674884141855</v>
+        <v>1100.674884141854</v>
       </c>
       <c r="V46" t="n">
-        <v>938.7542390596154</v>
+        <v>938.7542390596145</v>
       </c>
       <c r="W46" t="n">
-        <v>759.4825370877295</v>
+        <v>759.4825370877286</v>
       </c>
       <c r="X46" t="n">
-        <v>629.4609149676489</v>
+        <v>629.4609149676483</v>
       </c>
       <c r="Y46" t="n">
-        <v>510.4075538812288</v>
+        <v>510.4075538812281</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>168.8854465712013</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>689.3938312907394</v>
+        <v>664.4886733105329</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>663.8821130505899</v>
       </c>
       <c r="O2" t="n">
-        <v>553.0300431864789</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>529.8753196501292</v>
       </c>
       <c r="M3" t="n">
-        <v>632.0559017423241</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>625.0408925471788</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>417.5329304301211</v>
+        <v>607.4511806016947</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>517.9430814145408</v>
       </c>
       <c r="M5" t="n">
-        <v>689.3938312907394</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>663.8821130505899</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.7697572590048</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>407.1424749973212</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>625.0408925471788</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>607.4511806016947</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>279.0849498446577</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>363.4321479293332</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8778,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>457.616862805975</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>199.6102425680207</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,22 +9477,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9717,16 +9717,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>203.3790190010273</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>228.1998931286865</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10604,7 +10604,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>550.6002160777358</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>199.9106794075977</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,22 +10899,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,7 +11145,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>130.1671371226259</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>254.1928016744752</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.19900125366077</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>154.6161781614783</v>
       </c>
       <c r="U11" t="n">
-        <v>128.7895148632907</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>272.0363229488177</v>
+        <v>272.0363229488176</v>
       </c>
       <c r="W11" t="n">
-        <v>300.6396264266963</v>
+        <v>300.6396264266962</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.7065202496892</v>
+        <v>107.8777872656257</v>
       </c>
       <c r="C13" t="n">
-        <v>101.8536484999716</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.92209510684974</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>65.11406285459381</v>
+        <v>65.11406285459371</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>196.6701334726849</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>17.27583836689077</v>
+        <v>213.847679793435</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>165.0901007401475</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.231522316824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>140.1440017788757</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>23.90254524758638</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-7.054680719556555e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>286.2256333861316</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>70.17919579085716</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>123.9022099081271</v>
       </c>
       <c r="G44" t="n">
-        <v>306.0130148609098</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.93563264249278</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>753791.9189877978</v>
+        <v>752889.5975671572</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>753791.9189877978</v>
+        <v>752889.5975671572</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668326.7519649444</v>
+        <v>668326.7519649445</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>716617.3697094233</v>
+        <v>716617.3697094232</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760041.5913498973</v>
+        <v>760041.5913498972</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>727395.415023674</v>
+        <v>727395.4150236741</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>540996.5342800702</v>
+      </c>
+      <c r="C2" t="n">
         <v>540996.5342800701</v>
       </c>
-      <c r="C2" t="n">
-        <v>540996.5342800703</v>
-      </c>
       <c r="D2" t="n">
-        <v>540996.5342800703</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="E2" t="n">
-        <v>472210.4047413558</v>
+        <v>472210.4047413559</v>
       </c>
       <c r="F2" t="n">
-        <v>508428.3680497155</v>
+        <v>508428.3680497154</v>
       </c>
       <c r="G2" t="n">
         <v>540996.5342800703</v>
       </c>
       <c r="H2" t="n">
+        <v>540996.5342800705</v>
+      </c>
+      <c r="I2" t="n">
+        <v>540996.5342800705</v>
+      </c>
+      <c r="J2" t="n">
+        <v>540996.5342800708</v>
+      </c>
+      <c r="K2" t="n">
+        <v>540996.5342800708</v>
+      </c>
+      <c r="L2" t="n">
+        <v>540996.5342800694</v>
+      </c>
+      <c r="M2" t="n">
         <v>540996.5342800703</v>
       </c>
-      <c r="I2" t="n">
-        <v>540996.5342800702</v>
-      </c>
-      <c r="J2" t="n">
-        <v>540996.5342800712</v>
-      </c>
-      <c r="K2" t="n">
-        <v>540996.5342800709</v>
-      </c>
-      <c r="L2" t="n">
-        <v>540996.5342800702</v>
-      </c>
-      <c r="M2" t="n">
-        <v>540996.5342800706</v>
-      </c>
       <c r="N2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="O2" t="n">
         <v>540996.5342800703</v>
       </c>
       <c r="P2" t="n">
-        <v>516511.9020354025</v>
+        <v>516511.9020354031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180855.4204570613</v>
+        <v>172509.1291992606</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16073.03574699075</v>
+        <v>23809.32497038228</v>
       </c>
       <c r="E3" t="n">
         <v>108579.4461620183</v>
       </c>
       <c r="F3" t="n">
-        <v>21873.48497569392</v>
+        <v>21873.48497569383</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>202205.4032429587</v>
+        <v>195689.1180883858</v>
       </c>
       <c r="K3" t="n">
-        <v>21873.48497569391</v>
+        <v>21873.48497569382</v>
       </c>
       <c r="L3" t="n">
-        <v>39804.58677398706</v>
+        <v>44959.35675209833</v>
       </c>
       <c r="M3" t="n">
-        <v>42370.88004226798</v>
+        <v>43422.57505345605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24224.57873074486</v>
+        <v>24224.578730745</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200754.6141658325</v>
+        <v>206564.4670214151</v>
       </c>
       <c r="C4" t="n">
-        <v>200754.6141658324</v>
+        <v>206564.4670214151</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>108321.774466031</v>
+        <v>108321.7744660311</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161029.6407256106</v>
+        <v>160896.2461165558</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26457,7 +26457,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="P4" t="n">
-        <v>142058.2481064711</v>
+        <v>142058.2481064712</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66439.46180533513</v>
+        <v>64925.22820013859</v>
       </c>
       <c r="C5" t="n">
-        <v>66439.46180533513</v>
+        <v>64925.22820013859</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61638.48473234886</v>
+        <v>60665.94657376459</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>55871.16680499265</v>
+        <v>55871.16680499267</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92947.03785184119</v>
+        <v>96997.70985925589</v>
       </c>
       <c r="C6" t="n">
-        <v>273802.4583089028</v>
+        <v>269506.8390585164</v>
       </c>
       <c r="D6" t="n">
-        <v>266654.0684448705</v>
+        <v>258917.7792214791</v>
       </c>
       <c r="E6" t="n">
-        <v>202495.4971149245</v>
+        <v>202266.2100164621</v>
       </c>
       <c r="F6" t="n">
-        <v>295490.6232168045</v>
+        <v>295382.0626627033</v>
       </c>
       <c r="G6" t="n">
-        <v>293175.5180997464</v>
+        <v>293175.5180997463</v>
       </c>
       <c r="H6" t="n">
-        <v>322270.4739727605</v>
+        <v>322270.4739727608</v>
       </c>
       <c r="I6" t="n">
-        <v>322270.4739727605</v>
+        <v>322270.4739727608</v>
       </c>
       <c r="J6" t="n">
-        <v>113825.3023270199</v>
+        <v>120341.5874815924</v>
       </c>
       <c r="K6" t="n">
         <v>294157.2205942844</v>
       </c>
       <c r="L6" t="n">
-        <v>278523.8220481238</v>
+        <v>274474.9848376507</v>
       </c>
       <c r="M6" t="n">
-        <v>279899.5939304929</v>
+        <v>278847.8989193046</v>
       </c>
       <c r="N6" t="n">
-        <v>322270.4739727608</v>
+        <v>322270.4739727607</v>
       </c>
       <c r="O6" t="n">
-        <v>298045.8952420158</v>
+        <v>298045.8952420157</v>
       </c>
       <c r="P6" t="n">
-        <v>318582.4871239387</v>
+        <v>318500.8716831236</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
         <v>93.99127447431647</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.6687796930122</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="C4" t="n">
-        <v>539.6687796930122</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>865.3173902680954</v>
+        <v>840.4122322878889</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F2" t="n">
-        <v>27.3418562196174</v>
+        <v>27.34185621961728</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30.28072341343108</v>
+        <v>30.28072341343126</v>
       </c>
       <c r="K2" t="n">
-        <v>27.34185621961738</v>
+        <v>27.34185621961727</v>
       </c>
       <c r="L2" t="n">
-        <v>49.75573346748382</v>
+        <v>56.19919594012291</v>
       </c>
       <c r="M2" t="n">
-        <v>22.98165621505213</v>
+        <v>16.538193742413</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.28072341343108</v>
+        <v>30.28072341343125</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.6687796930122</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.74334657628287</v>
+        <v>76.64850455648934</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.2404202359461</v>
+        <v>655.3352622557398</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>96.24867606549765</v>
+        <v>121.1538340457041</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="K2" t="n">
-        <v>27.3418562196174</v>
+        <v>27.34185621961728</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.28072341343108</v>
+        <v>30.28072341343126</v>
       </c>
       <c r="P2" t="n">
-        <v>27.34185621961738</v>
+        <v>27.34185621961727</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>539.6687796930122</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>51.74334657628287</v>
+        <v>76.64850455648934</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>250.3129922395804</v>
       </c>
       <c r="I2" t="n">
-        <v>46.46330435450902</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.1982734827769</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>72.01750168850342</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>125.2572693120381</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.7124589214581</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.223334882857785</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>256.369041536887</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>42.2904730503561</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>65.72355341301679</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>39.13468777473295</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>26.67279035971239</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>232.6893318934085</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>359.267261820824</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>18.38767331739228</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>125.7398519524133</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="C11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="D11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="E11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="G11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="H11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="I11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="T11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="U11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="V11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="W11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="X11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="C13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="D13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="E13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="G13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="H13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="I13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="J13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="K13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="L13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="M13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="N13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="O13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="P13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="R13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="S13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="T13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="U13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="V13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="W13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="X13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.64941825469907</v>
+        <v>66.64941825469917</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28992,13 +28992,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634528467</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634527685</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>35.71049010668693</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431647</v>
@@ -29305,19 +29305,19 @@
         <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901135</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431647</v>
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>30.27223765901215</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599578</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="E32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="F32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="G32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="H32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="I32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>107.3783131005324</v>
+        <v>25.46623983028712</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="N32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="O32" t="n">
-        <v>29.58921458655857</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="T32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="U32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="V32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="W32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="X32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="Y32" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="C34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="D34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="E34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="F34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="G34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="H34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="I34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>73.80086014485889</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.3783131005324</v>
+        <v>86.73461952733936</v>
       </c>
       <c r="N34" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="P34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3783131005324</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="S34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="T34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="U34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="V34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="W34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="X34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.3783131005324</v>
+        <v>113.8217755731714</v>
       </c>
     </row>
     <row r="35">
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5.636002634528545</v>
-      </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634528481</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,13 +30642,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.636002634528637</v>
+      </c>
+      <c r="M43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.636002634528666</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="C44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="D44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="E44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="F44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="G44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="H44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="I44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="T44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="U44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="V44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="W44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="X44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="Y44" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="C46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="D46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="E46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="F46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="G46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="H46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="I46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="K46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="L46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="M46" t="n">
-        <v>59.4032226849929</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="N46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="O46" t="n">
-        <v>103.018113095967</v>
+        <v>89.4777101571506</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.018113095967</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="S46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="T46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="U46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="V46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="W46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="X46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.018113095967</v>
+        <v>103.0181130959671</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>25.82704339196395</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>539.6687796930122</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="O2" t="n">
-        <v>403.4662057623826</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>439.814972793211</v>
       </c>
       <c r="M3" t="n">
-        <v>539.6687796930122</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>539.6687796930122</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>324.8453715412322</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>364.6949116840491</v>
       </c>
       <c r="M5" t="n">
-        <v>539.6687796930122</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2710588406127</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>314.7553529480093</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>539.6687796930122</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>514.7636217128057</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>188.0967966887437</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>220.3737447500958</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>35.05004611020361</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35498,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>372.2447499518083</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.57493078254</v>
+        <v>36.5749307825401</v>
       </c>
       <c r="K13" t="n">
-        <v>149.311075941509</v>
+        <v>149.3110759415092</v>
       </c>
       <c r="L13" t="n">
-        <v>232.4349130767191</v>
+        <v>232.4349130767192</v>
       </c>
       <c r="M13" t="n">
-        <v>254.822729707491</v>
+        <v>254.8227297074911</v>
       </c>
       <c r="N13" t="n">
-        <v>251.6894526296579</v>
+        <v>251.689452629658</v>
       </c>
       <c r="O13" t="n">
-        <v>230.9976677917779</v>
+        <v>230.997667791778</v>
       </c>
       <c r="P13" t="n">
-        <v>187.7364543926572</v>
+        <v>187.7364543926573</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.10618226485155</v>
+        <v>70.10618226485165</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>107.2231205187088</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526632</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36288,13 +36288,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716073</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724859</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>113.782083667694</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934969</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,19 +36601,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101028</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698319</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670549</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37072,22 +37072,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>605.6816380687434</v>
+        <v>523.7695647984981</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>665.3378362242629</v>
       </c>
       <c r="N32" t="n">
-        <v>640.5210238454436</v>
+        <v>646.9644863180825</v>
       </c>
       <c r="O32" t="n">
-        <v>474.0736599323449</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>294.0910001115915</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>135.5123342397976</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>83.74728810101234</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>239.5863549668789</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>295.5516245533243</v>
+        <v>274.9079309801313</v>
       </c>
       <c r="N34" t="n">
-        <v>292.4183474754911</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>278.1700251102503</v>
       </c>
       <c r="P34" t="n">
-        <v>228.4653492384905</v>
+        <v>234.9088117111296</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.8350771106848</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>458.2130940284239</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681028</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724866</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,7 +37865,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565487</v>
+        <v>171.4214974565486</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>72.94362562380806</v>
       </c>
       <c r="K46" t="n">
-        <v>185.679770782777</v>
+        <v>185.6797707827771</v>
       </c>
       <c r="L46" t="n">
         <v>268.8036079179871</v>
       </c>
       <c r="M46" t="n">
-        <v>247.5765341377848</v>
+        <v>291.1914245487591</v>
       </c>
       <c r="N46" t="n">
         <v>288.0581474709259</v>
       </c>
       <c r="O46" t="n">
-        <v>267.3663626330459</v>
+        <v>253.8259596942295</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.4748771061195</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
